--- a/INTLINE/data/142/STANOR/04542 Employed persons total.xlsx
+++ b/INTLINE/data/142/STANOR/04542 Employed persons total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>04542: Employed persons total and employed persons at work (LFS), by quarter, contents, sex and occupational status</x:t>
   </x:si>
@@ -151,27 +151,15 @@
     <x:t>2006K1</x:t>
   </x:si>
   <x:si>
-    <x:t>2006K1 Gml</x:t>
-  </x:si>
-  <x:si>
     <x:t>2006K2</x:t>
   </x:si>
   <x:si>
-    <x:t>2006K2 Gml</x:t>
-  </x:si>
-  <x:si>
     <x:t>2006K3</x:t>
   </x:si>
   <x:si>
-    <x:t>2006K3 Gml</x:t>
-  </x:si>
-  <x:si>
     <x:t>2006K4</x:t>
   </x:si>
   <x:si>
-    <x:t>2006K4 Gml</x:t>
-  </x:si>
-  <x:si>
     <x:t>2007K1</x:t>
   </x:si>
   <x:si>
@@ -352,7 +340,10 @@
     <x:t>2021K4</x:t>
   </x:si>
   <x:si>
-    <x:t>There was a change in the LFS from January 2006, where the age limit was lowered from 16 to 15 years. In order to compare the figures for 2006 with the previous years, figures for 2006 have also been published based on the old method.</x:t>
+    <x:t>2022K1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>There was a change in the LFS from January 2006, where the age limit was lowered from 16 to 15 years.</x:t>
   </x:si>
   <x:si>
     <x:t>There may be occasional breaks in the time series of man-weeks worked due to public holidays (movable feasts).</x:t>
@@ -367,7 +358,7 @@
     <x:t>From 2018, a new estimation method has been applied, the figures have been revised back to 2006. For more information, see separate &lt;a href='https://www.ssb.no/arbeid-og-lonn/artikler-og-publikasjoner/new-estimation-methodology-for-the-norwegian-labour-force-survey'&gt; article &lt;/a&gt;.</x:t>
   </x:si>
   <x:si>
-    <x:t>A major restructuring of the LFS was carried out from January 2021. With the reorganization, changes have been made to the sample that is included in the survey, and the question sequences, question formulations and answer alternatives have been modernized and adapted to self-completion as a future collection method. Thue use of proxy interviewing ceased in 2021. This change seem to have given a break in some variables among young people. See About the statistics for more information.</x:t>
+    <x:t>A major restructuring of the LFS was carried out from January 2021, see &lt;a href='https://www.ssb.no/en/arbeid-og-lonn/sysselsetting/statistikk/arbeidskraftundersokelsen'&gt; About the statistics &lt;/a&gt; for more information. Consequently, the number of persons aged 15-74 was reduced by 26 700 in the new LFS. The restructuring also led to a break in the number of employed persons calculated to 21 900 and a break in the number of unemployed persons calculated to 5 400 (both estimates, the last one not significant). The number of perosn outside the labour force was redused by 54 000. The use of proxy interviewing ceased in 2021. This change seem to have given a break in some variables among young people.</x:t>
   </x:si>
   <x:si>
     <x:t>Due to the restructuring as of 2021, the number of salaried employees and self-employed are not comparable with previous quarters.</x:t>
@@ -382,7 +373,7 @@
     <x:t>Employed persons (1 000 persons):</x:t>
   </x:si>
   <x:si>
-    <x:t>20220127 08:00</x:t>
+    <x:t>20220428 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -844,7 +835,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B169"/>
+  <x:dimension ref="A1:B166"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1206,7 +1197,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B47" s="3" t="n">
-        <x:v>2317</x:v>
+        <x:v>2348</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:2">
@@ -1214,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B48" s="3" t="n">
-        <x:v>2348</x:v>
+        <x:v>2376</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:2">
@@ -1222,7 +1213,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B49" s="3" t="n">
-        <x:v>2347</x:v>
+        <x:v>2389</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:2">
@@ -1230,7 +1221,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B50" s="3" t="n">
-        <x:v>2376</x:v>
+        <x:v>2394</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:2">
@@ -1238,7 +1229,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B51" s="3" t="n">
-        <x:v>2373</x:v>
+        <x:v>2432</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:2">
@@ -1246,7 +1237,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B52" s="3" t="n">
-        <x:v>2389</x:v>
+        <x:v>2448</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:2">
@@ -1254,7 +1245,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B53" s="3" t="n">
-        <x:v>2379</x:v>
+        <x:v>2475</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:2">
@@ -1262,7 +1253,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B54" s="3" t="n">
-        <x:v>2394</x:v>
+        <x:v>2483</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:2">
@@ -1270,7 +1261,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B55" s="3" t="n">
-        <x:v>2432</x:v>
+        <x:v>2510</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:2">
@@ -1278,7 +1269,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B56" s="3" t="n">
-        <x:v>2448</x:v>
+        <x:v>2522</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:2">
@@ -1286,7 +1277,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B57" s="3" t="n">
-        <x:v>2475</x:v>
+        <x:v>2503</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:2">
@@ -1294,7 +1285,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B58" s="3" t="n">
-        <x:v>2483</x:v>
+        <x:v>2498</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:2">
@@ -1302,7 +1293,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B59" s="3" t="n">
-        <x:v>2510</x:v>
+        <x:v>2511</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:2">
@@ -1310,7 +1301,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B60" s="3" t="n">
-        <x:v>2522</x:v>
+        <x:v>2495</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:2">
@@ -1318,7 +1309,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B61" s="3" t="n">
-        <x:v>2503</x:v>
+        <x:v>2478</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:2">
@@ -1326,7 +1317,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B62" s="3" t="n">
-        <x:v>2498</x:v>
+        <x:v>2473</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:2">
@@ -1334,7 +1325,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B63" s="3" t="n">
-        <x:v>2511</x:v>
+        <x:v>2505</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:2">
@@ -1342,7 +1333,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="B64" s="3" t="n">
-        <x:v>2495</x:v>
+        <x:v>2507</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:2">
@@ -1350,7 +1341,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B65" s="3" t="n">
-        <x:v>2478</x:v>
+        <x:v>2506</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:2">
@@ -1358,7 +1349,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B66" s="3" t="n">
-        <x:v>2473</x:v>
+        <x:v>2508</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:2">
@@ -1366,7 +1357,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B67" s="3" t="n">
-        <x:v>2505</x:v>
+        <x:v>2543</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:2">
@@ -1374,7 +1365,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B68" s="3" t="n">
-        <x:v>2507</x:v>
+        <x:v>2559</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:2">
@@ -1382,7 +1373,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B69" s="3" t="n">
-        <x:v>2506</x:v>
+        <x:v>2558</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:2">
@@ -1390,7 +1381,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B70" s="3" t="n">
-        <x:v>2508</x:v>
+        <x:v>2561</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:2">
@@ -1398,7 +1389,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="B71" s="3" t="n">
-        <x:v>2543</x:v>
+        <x:v>2591</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:2">
@@ -1406,7 +1397,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="B72" s="3" t="n">
-        <x:v>2559</x:v>
+        <x:v>2593</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:2">
@@ -1414,7 +1405,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B73" s="3" t="n">
-        <x:v>2558</x:v>
+        <x:v>2589</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:2">
@@ -1422,7 +1413,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B74" s="3" t="n">
-        <x:v>2561</x:v>
+        <x:v>2576</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:2">
@@ -1430,7 +1421,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B75" s="3" t="n">
-        <x:v>2591</x:v>
+        <x:v>2600</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:2">
@@ -1438,7 +1429,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B76" s="3" t="n">
-        <x:v>2593</x:v>
+        <x:v>2619</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:2">
@@ -1446,7 +1437,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B77" s="3" t="n">
-        <x:v>2589</x:v>
+        <x:v>2612</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:2">
@@ -1454,7 +1445,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B78" s="3" t="n">
-        <x:v>2576</x:v>
+        <x:v>2594</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:2">
@@ -1462,7 +1453,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B79" s="3" t="n">
-        <x:v>2600</x:v>
+        <x:v>2641</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:2">
@@ -1470,7 +1461,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B80" s="3" t="n">
-        <x:v>2619</x:v>
+        <x:v>2633</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:2">
@@ -1478,7 +1469,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B81" s="3" t="n">
-        <x:v>2612</x:v>
+        <x:v>2630</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:2">
@@ -1486,7 +1477,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B82" s="3" t="n">
-        <x:v>2594</x:v>
+        <x:v>2621</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:2">
@@ -1494,7 +1485,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B83" s="3" t="n">
-        <x:v>2641</x:v>
+        <x:v>2656</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:2">
@@ -1502,7 +1493,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B84" s="3" t="n">
-        <x:v>2633</x:v>
+        <x:v>2646</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:2">
@@ -1510,7 +1501,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B85" s="3" t="n">
-        <x:v>2630</x:v>
+        <x:v>2634</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:2">
@@ -1518,7 +1509,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B86" s="3" t="n">
-        <x:v>2621</x:v>
+        <x:v>2625</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:2">
@@ -1526,7 +1517,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B87" s="3" t="n">
-        <x:v>2656</x:v>
+        <x:v>2647</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:2">
@@ -1534,7 +1525,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B88" s="3" t="n">
-        <x:v>2646</x:v>
+        <x:v>2651</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:2">
@@ -1542,7 +1533,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B89" s="3" t="n">
-        <x:v>2634</x:v>
+        <x:v>2628</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:2">
@@ -1550,7 +1541,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B90" s="3" t="n">
-        <x:v>2625</x:v>
+        <x:v>2621</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:2">
@@ -1558,7 +1549,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B91" s="3" t="n">
-        <x:v>2647</x:v>
+        <x:v>2656</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:2">
@@ -1566,7 +1557,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B92" s="3" t="n">
-        <x:v>2651</x:v>
+        <x:v>2658</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:2">
@@ -1574,7 +1565,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B93" s="3" t="n">
-        <x:v>2628</x:v>
+        <x:v>2652</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:2">
@@ -1582,7 +1573,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B94" s="3" t="n">
-        <x:v>2621</x:v>
+        <x:v>2660</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:2">
@@ -1590,7 +1581,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B95" s="3" t="n">
-        <x:v>2656</x:v>
+        <x:v>2697</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:2">
@@ -1598,7 +1589,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B96" s="3" t="n">
-        <x:v>2658</x:v>
+        <x:v>2713</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:2">
@@ -1606,7 +1597,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B97" s="3" t="n">
-        <x:v>2652</x:v>
+        <x:v>2708</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:2">
@@ -1614,7 +1605,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B98" s="3" t="n">
-        <x:v>2660</x:v>
+        <x:v>2692</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:2">
@@ -1622,7 +1613,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B99" s="3" t="n">
-        <x:v>2697</x:v>
+        <x:v>2719</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:2">
@@ -1630,7 +1621,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B100" s="3" t="n">
-        <x:v>2713</x:v>
+        <x:v>2755</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:2">
@@ -1638,7 +1629,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B101" s="3" t="n">
-        <x:v>2708</x:v>
+        <x:v>2732</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:2">
@@ -1646,7 +1637,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B102" s="3" t="n">
-        <x:v>2692</x:v>
+        <x:v>2728</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:2">
@@ -1654,7 +1645,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B103" s="3" t="n">
-        <x:v>2719</x:v>
+        <x:v>2699</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:2">
@@ -1662,7 +1653,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B104" s="3" t="n">
-        <x:v>2755</x:v>
+        <x:v>2706</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:2">
@@ -1670,7 +1661,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B105" s="3" t="n">
-        <x:v>2732</x:v>
+        <x:v>2706</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:2">
@@ -1678,7 +1669,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B106" s="3" t="n">
-        <x:v>2728</x:v>
+        <x:v>2699</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:2">
@@ -1686,7 +1677,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B107" s="3" t="n">
-        <x:v>2699</x:v>
+        <x:v>2772</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:2">
@@ -1694,7 +1685,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B108" s="3" t="n">
-        <x:v>2706</x:v>
+        <x:v>2810</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:2">
@@ -1702,7 +1693,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B109" s="3" t="n">
-        <x:v>2706</x:v>
+        <x:v>2817</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:2">
@@ -1710,31 +1701,22 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B110" s="3" t="n">
-        <x:v>2699</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:2">
-      <x:c r="A111" s="2" t="s">
+        <x:v>2825</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:2">
+      <x:c r="A112" s="4" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="B111" s="3" t="n">
-        <x:v>2772</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="112" spans="1:2">
-      <x:c r="A112" s="2" t="s">
+    </x:row>
+    <x:row r="113" spans="1:2">
+      <x:c r="A113" s="4" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="B112" s="3" t="n">
-        <x:v>2810</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="113" spans="1:2">
-      <x:c r="A113" s="2" t="s">
+    </x:row>
+    <x:row r="114" spans="1:2">
+      <x:c r="A114" s="4" t="s">
         <x:v>111</x:v>
-      </x:c>
-      <x:c r="B113" s="3" t="n">
-        <x:v>2817</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:2">
@@ -1762,181 +1744,166 @@
         <x:v>116</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:2">
-      <x:c r="A120" s="4" t="s">
+    <x:row r="121" spans="1:2">
+      <x:c r="A121" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
     </x:row>
-    <x:row r="121" spans="1:2">
-      <x:c r="A121" s="4" t="s">
+    <x:row r="122" spans="1:2">
+      <x:c r="A122" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:2">
-      <x:c r="A122" s="4" t="s">
+    <x:row r="123" spans="1:2">
+      <x:c r="A123" s="0" t="s">
         <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="124" spans="1:2">
-      <x:c r="A124" s="0" t="s">
-        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:2">
       <x:c r="A125" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:2">
       <x:c r="A126" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:2">
       <x:c r="A128" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:2">
       <x:c r="A129" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:2">
+      <x:c r="A130" s="0" t="s">
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:2">
       <x:c r="A131" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:2">
       <x:c r="A132" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="133" spans="1:2">
-      <x:c r="A133" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:2">
       <x:c r="A134" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:2">
       <x:c r="A135" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:2">
+      <x:c r="A136" s="0" t="s">
         <x:v>128</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="137" spans="1:2">
-      <x:c r="A137" s="0" t="s">
-        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:2">
       <x:c r="A138" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:2">
       <x:c r="A139" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:2">
+      <x:c r="A140" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
     </x:row>
-    <x:row r="141" spans="1:2">
-      <x:c r="A141" s="0" t="s">
+    <x:row r="144" spans="1:2">
+      <x:c r="A144" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
     </x:row>
-    <x:row r="142" spans="1:2">
-      <x:c r="A142" s="0" t="s">
+    <x:row r="146" spans="1:2">
+      <x:c r="A146" s="0" t="s">
         <x:v>133</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="143" spans="1:2">
-      <x:c r="A143" s="0" t="s">
-        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:2">
       <x:c r="A147" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:2">
+      <x:c r="A148" s="0" t="s">
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:2">
       <x:c r="A149" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:2">
       <x:c r="A150" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:2">
       <x:c r="A151" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="152" spans="1:2">
-      <x:c r="A152" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:2">
       <x:c r="A153" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:2">
       <x:c r="A154" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:2">
+      <x:c r="A155" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:2">
+      <x:c r="A162" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
     </x:row>
-    <x:row r="156" spans="1:2">
-      <x:c r="A156" s="0" t="s">
+    <x:row r="163" spans="1:2">
+      <x:c r="A163" s="0" t="s">
         <x:v>140</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="157" spans="1:2">
-      <x:c r="A157" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="158" spans="1:2">
-      <x:c r="A158" s="0" t="s">
-        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:2">
       <x:c r="A165" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:2">
       <x:c r="A166" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="168" spans="1:2">
-      <x:c r="A168" s="0" t="s">
-        <x:v>144</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="169" spans="1:2">
-      <x:c r="A169" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="8">
+    <x:mergeCell ref="A112:B112"/>
+    <x:mergeCell ref="A113:B113"/>
+    <x:mergeCell ref="A114:B114"/>
     <x:mergeCell ref="A115:B115"/>
     <x:mergeCell ref="A116:B116"/>
     <x:mergeCell ref="A117:B117"/>
     <x:mergeCell ref="A118:B118"/>
     <x:mergeCell ref="A119:B119"/>
-    <x:mergeCell ref="A120:B120"/>
-    <x:mergeCell ref="A121:B121"/>
-    <x:mergeCell ref="A122:B122"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
